--- a/data/xlsx/Title.xlsx
+++ b/data/xlsx/Title.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1079,6 +1079,58 @@
       <c r="C50" t="inlineStr">
         <is>
           <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CID_G001</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/Title.xlsx
+++ b/data/xlsx/Title.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GID_エーデルガルト</t>
+          <t>GID_ヘクトル</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -1112,12 +1112,12 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GID_ディミトリ</t>
+          <t>GID_セネリオ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CID_G001</t>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,51 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>GID_クロード</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CID_G001</t>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MCID_*</t>
         </is>
       </c>
     </row>
